--- a/Ángel Martínez Gerson Hermenegildo 20212.xlsx
+++ b/Ángel Martínez Gerson Hermenegildo 20212.xlsx
@@ -6818,7 +6818,7 @@
         <v>670</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7223,7 +7223,7 @@
         <v>765</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">

--- a/Ángel Martínez Gerson Hermenegildo 20212.xlsx
+++ b/Ángel Martínez Gerson Hermenegildo 20212.xlsx
@@ -9484,7 +9484,7 @@
         <v>1206</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9717,7 +9717,7 @@
         <v>1212</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11">
